--- a/数据整理/stocks/其他/TW0002330008-TAIWAN SEMICONDUCTOR MFG CO. LTD.xlsx
+++ b/数据整理/stocks/其他/TW0002330008-TAIWAN SEMICONDUCTOR MFG CO. LTD.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1733,4 +1734,72 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.85</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>22</v>
+      </c>
+      <c r="D3" t="n">
+        <v>20.34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/TW0002330008-TAIWAN SEMICONDUCTOR MFG CO. LTD.xlsx
+++ b/数据整理/stocks/其他/TW0002330008-TAIWAN SEMICONDUCTOR MFG CO. LTD.xlsx
@@ -1758,12 +1758,12 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>持有市值(亿元)</t>
         </is>
       </c>
     </row>
